--- a/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>34.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>009169</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>湘财长兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.10</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.10</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>009170</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>湘财长兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>74.65</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005572</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合C</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>74.65</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009169</t>
+          <t>005572</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合A</t>
+          <t>中银证券新能源灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009170</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合C</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004005</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合A</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>26.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9843</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004006</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合C</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -828,15 +948,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>28.63</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>675053</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得合赢债券C</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>675093</t>
+          <t>675053</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得祥逸债券C</t>
+          <t>西部利得合赢债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>28.63</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>005965</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>安信中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -940,15 +1100,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.46</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>66.16</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>004005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>东方民丰回报赢安混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005965</t>
+          <t>004006</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1070,26 +1274,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005966</t>
+          <t>675093</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
+          <t>西部利得祥逸债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1250,7 +1251,6 @@
           <t>东方民丰回报赢安混合C</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>28.63</t>
@@ -1282,7 +1282,6 @@
           <t>西部利得祥逸债券C</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>28.63</t>
@@ -1298,6 +1297,822 @@
       </c>
       <c r="H13" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2118,4 +2119,1428 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5892</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5603</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3543,4 +3544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3552,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3563,17 +3564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3583,14 +3604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.32</v>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3599,14 +3642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6750</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3615,14 +3680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.28</v>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3631,13 +3718,2239 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5849,7 +5850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5860,17 +5861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5880,14 +5901,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.33</v>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5896,14 +5939,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.32</v>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5912,14 +5977,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.9</v>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5928,14 +6015,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.28</v>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5944,13 +6053,1075 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7004,7 +7005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7015,17 +7016,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7035,14 +7056,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.64</v>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7051,14 +7094,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.33</v>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7067,14 +7132,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.32</v>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7083,14 +7170,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.9</v>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -7099,14 +7208,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.28</v>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -7115,13 +7246,1057 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004750</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004751</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>5.89</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>3.64</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>6.33</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>3.32</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>1.9</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>1.28</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001938</t>
+          <t>040005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧时代先锋股票A</t>
+          <t>华安宏利混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>184.42</t>
+          <t>26.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5040</t>
+          <t>1.0702</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004241</t>
+          <t>001104</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧时代先锋股票C</t>
+          <t>华安新丝路主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.73</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>87.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6599</t>
+          <t>0.2995</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>006449</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>浙商汇金量化精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.27</t>
+          <t>81.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6006</t>
+          <t>0.1187</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013004</t>
+          <t>009986</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰价值领航股票A</t>
+          <t>天弘创新领航混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.90</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3222</t>
+          <t>0.0972</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006449</t>
+          <t>016854</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商汇金量化精选灵活配置混合</t>
+          <t>汇添富成长多因子量化策略股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1542</t>
+          <t>0.0779</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>200010</t>
+          <t>014773</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长城双动力混合</t>
+          <t>华安品质领先混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>85.31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1430</t>
+          <t>0.0613</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000573</t>
+          <t>014175</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘通利混合</t>
+          <t>工银价值成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32.15</t>
+          <t>66.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0931</t>
+          <t>0.0529</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009986</t>
+          <t>014541</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘创新领航混合A</t>
+          <t>华安新能源主题混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.40</t>
+          <t>84.17</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0890</t>
+          <t>0.0527</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>160421</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>华安智增精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>85.93</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0560</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004750</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发鑫和灵活配置混合A</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26.30</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0366</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002271</t>
+          <t>011558</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商安弘灵活配置混合</t>
+          <t>天弘宁弘六个月持有混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>20.17</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009789</t>
+          <t>009987</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富安达科技创新混合</t>
+          <t>天弘创新领航混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009987</t>
+          <t>005572</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘创新领航混合C</t>
+          <t>中银证券新能源灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.40</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000935</t>
+          <t>014774</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>浙商汇金转型成长混合</t>
+          <t>华安品质领先混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.15</t>
+          <t>85.31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001250</t>
+          <t>011559</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天弘新活力灵活配置混合</t>
+          <t>天弘宁弘六个月持有混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>54.97</t>
+          <t>20.17</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>013145</t>
+          <t>014176</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>浙商汇金先进制造混合</t>
+          <t>工银价值成长混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79.03</t>
+          <t>66.94</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>76.27</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005572</t>
+          <t>009200</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合C</t>
+          <t>华安金享混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>79.59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0174</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007439</t>
+          <t>014542</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东海科技动力混合A</t>
+          <t>华安新能源主题混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>84.17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1378,36 +1395,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>013005</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国泰价值领航股票C</t>
+          <t>诺安中证500指数增强C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.90</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005128</t>
+          <t>013505</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华夏永康添福混合</t>
+          <t>华安新丝路主题股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>87.63</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1454,33 +1471,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005569</t>
+          <t>016294</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中融智选红利股票A</t>
+          <t>华安宏利混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>8</v>
@@ -1492,264 +1507,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007463</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东海科技动力混合C</t>
+          <t>汇添富成长多因子量化策略股票A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>169201</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>80.70</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004751</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发鑫和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>26.30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003797</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华安新瑞利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>22.79</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003798</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华安新瑞利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>22.79</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005570</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中融智选红利股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>015067</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华夏永康添福混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1814,36 +1599,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003961</t>
+          <t>001938</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合A</t>
+          <t>中欧时代先锋股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.99</t>
+          <t>184.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0357</t>
+          <t>3.5040</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1852,36 +1637,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012647</t>
+          <t>004241</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧洞见一年持有混合</t>
+          <t>中欧时代先锋股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.02</t>
+          <t>34.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.46</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8717</t>
+          <t>0.6599</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1900,22 +1685,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.15</t>
+          <t>76.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5385</t>
+          <t>0.6006</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1928,36 +1713,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>013004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
+          <t>国泰价值领航股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>90.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2910</t>
+          <t>0.3222</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1966,36 +1751,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013004</t>
+          <t>006449</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰价值领航股票A</t>
+          <t>浙商汇金量化精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2576</t>
+          <t>0.1542</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2004,36 +1789,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006449</t>
+          <t>200010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商汇金量化精选灵活配置混合</t>
+          <t>长城双动力混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.69</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1661</t>
+          <t>0.1430</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2042,36 +1827,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>200010</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城双动力混合</t>
+          <t>天弘通利混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>32.15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0751</t>
+          <t>0.0931</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2080,36 +1865,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006385</t>
+          <t>009986</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合A</t>
+          <t>天弘创新领航混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.65</t>
+          <t>90.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0669</t>
+          <t>0.0890</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2118,36 +1903,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>580006</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴新经济混合</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0559</t>
+          <t>0.0560</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2156,32 +1941,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005933</t>
+          <t>004750</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
+          <t>广发鑫和灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>26.30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0541</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2194,36 +1979,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>002271</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>招商安弘灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0462</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2232,32 +2017,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012696</t>
+          <t>009789</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>同泰数字经济主题股票型证券投资基金A</t>
+          <t>富安达科技创新混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2270,36 +2055,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>013204</t>
+          <t>009987</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恒生前海恒源天利债A</t>
+          <t>天弘创新领航混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21.66</t>
+          <t>90.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2308,36 +2093,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>000935</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>浙商汇金转型成长混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.15</t>
+          <t>79.15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2346,36 +2131,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007439</t>
+          <t>001250</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东海科技动力混合A</t>
+          <t>天弘新活力灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>54.97</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -2384,32 +2169,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005572</t>
+          <t>013145</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合C</t>
+          <t>浙商汇金先进制造混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>79.03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2422,36 +2207,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012697</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>同泰数字经济主题股票型证券投资基金C</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>76.27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2460,36 +2245,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005169</t>
+          <t>005572</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华泰保兴策略精选灵活配置混合A</t>
+          <t>中银证券新能源灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2498,12 +2283,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>013005</t>
+          <t>007439</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰价值领航股票C</t>
+          <t>东海科技动力混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2513,21 +2298,21 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2536,36 +2321,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007463</t>
+          <t>013005</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东海科技动力混合C</t>
+          <t>国泰价值领航股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>90.90</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2574,36 +2359,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005170</t>
+          <t>005128</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华泰保兴策略精选灵活配置混合C</t>
+          <t>华夏永康添福混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>28.97</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2612,36 +2397,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005934</t>
+          <t>005569</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
+          <t>中融智选红利股票A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>89.56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2650,36 +2435,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>007463</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>东海科技动力混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2688,36 +2473,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006538</t>
+          <t>169201</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东海核心价值精选混合</t>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>80.70</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2726,36 +2511,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006386</t>
+          <t>004751</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合C</t>
+          <t>广发鑫和灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>83.65</t>
+          <t>26.30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2764,36 +2549,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>003797</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>华安新瑞利灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>22.79</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2802,36 +2587,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004005</t>
+          <t>003798</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合A</t>
+          <t>华安新瑞利灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>22.79</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2840,34 +2625,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>004006</t>
+          <t>005570</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合C</t>
+          <t>中融智选红利股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>89.56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2876,34 +2663,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>013205</t>
+          <t>015067</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恒生前海恒源天利债C</t>
+          <t>华夏永康添福混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>21.66</t>
+          <t>28.97</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2912,6 +2701,1160 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5207,7 +6150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6631,7 +7574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7447,7 +8390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7945,7 +8888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000887-中鼎股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>2.02</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>5.89</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>3.64</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>6.33</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>3.32</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>1.9</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>1.28</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -616,7 +633,1031 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014541</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014395</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014396</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013505</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1535,1164 +2576,6 @@
       </c>
       <c r="H24" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001938</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧时代先锋股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>184.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.5040</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004241</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧时代先锋股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6599</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010330</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6006</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013004</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰价值领航股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3222</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006449</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商汇金量化精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1542</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>200010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城双动力混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1430</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘通利混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>32.15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0931</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009986</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0890</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0560</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004750</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发鑫和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>26.30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002271</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商安弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.85</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009789</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富安达科技创新混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009987</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000935</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商汇金转型成长混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001250</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>天弘新活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>54.97</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>013145</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙商汇金先进制造混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>79.03</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011462</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>76.27</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007439</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东海科技动力混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>013005</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国泰价值领航股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.90</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005128</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华夏永康添福混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005569</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中融智选红利股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007463</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东海科技动力混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>169201</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>80.70</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004751</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发鑫和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>26.30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003797</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华安新瑞利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>22.79</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003798</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华安新瑞利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>22.79</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005570</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中融智选红利股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>015067</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华夏永康添福混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2757,36 +2640,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003961</t>
+          <t>001938</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合A</t>
+          <t>中欧时代先锋股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.99</t>
+          <t>184.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0357</t>
+          <t>3.5040</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2795,36 +2678,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012647</t>
+          <t>004241</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧洞见一年持有混合</t>
+          <t>中欧时代先锋股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.02</t>
+          <t>34.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.46</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8717</t>
+          <t>0.6599</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2843,22 +2726,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.15</t>
+          <t>76.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5385</t>
+          <t>0.6006</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2871,36 +2754,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>013004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
+          <t>国泰价值领航股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>90.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2910</t>
+          <t>0.3222</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2909,36 +2792,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013004</t>
+          <t>006449</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰价值领航股票A</t>
+          <t>浙商汇金量化精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2576</t>
+          <t>0.1542</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2947,36 +2830,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006449</t>
+          <t>200010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商汇金量化精选灵活配置混合</t>
+          <t>长城双动力混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.69</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1661</t>
+          <t>0.1430</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2985,36 +2868,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>200010</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城双动力混合</t>
+          <t>天弘通利混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>32.15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0751</t>
+          <t>0.0931</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3023,36 +2906,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006385</t>
+          <t>009986</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合A</t>
+          <t>天弘创新领航混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.65</t>
+          <t>90.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0669</t>
+          <t>0.0890</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -3061,36 +2944,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>580006</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴新经济混合</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0559</t>
+          <t>0.0560</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -3099,32 +2982,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005933</t>
+          <t>004750</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
+          <t>广发鑫和灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>26.30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0541</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3137,36 +3020,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>002271</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>招商安弘灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0462</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -3175,32 +3058,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012696</t>
+          <t>009789</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>同泰数字经济主题股票型证券投资基金A</t>
+          <t>富安达科技创新混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3213,36 +3096,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>013204</t>
+          <t>009987</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恒生前海恒源天利债A</t>
+          <t>天弘创新领航混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21.66</t>
+          <t>90.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3251,36 +3134,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>000935</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>浙商汇金转型成长混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.15</t>
+          <t>79.15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -3289,36 +3172,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007439</t>
+          <t>001250</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东海科技动力混合A</t>
+          <t>天弘新活力灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>54.97</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -3327,32 +3210,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005572</t>
+          <t>013145</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合C</t>
+          <t>浙商汇金先进制造混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>79.03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -3365,36 +3248,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012697</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>同泰数字经济主题股票型证券投资基金C</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>76.27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -3403,36 +3286,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005169</t>
+          <t>005572</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华泰保兴策略精选灵活配置混合A</t>
+          <t>中银证券新能源灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -3441,12 +3324,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>013005</t>
+          <t>007439</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰价值领航股票C</t>
+          <t>东海科技动力混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3456,21 +3339,21 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -3479,36 +3362,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007463</t>
+          <t>013005</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东海科技动力混合C</t>
+          <t>国泰价值领航股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>90.90</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -3517,36 +3400,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005170</t>
+          <t>005128</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华泰保兴策略精选灵活配置混合C</t>
+          <t>华夏永康添福混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>28.97</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -3555,36 +3438,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005934</t>
+          <t>005569</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
+          <t>中融智选红利股票A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>89.56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -3593,36 +3476,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>007463</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>东海科技动力混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -3631,36 +3514,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006538</t>
+          <t>169201</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东海核心价值精选混合</t>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>80.70</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -3669,36 +3552,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006386</t>
+          <t>004751</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合C</t>
+          <t>广发鑫和灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>83.65</t>
+          <t>26.30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -3707,36 +3590,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>003797</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>华安新瑞利灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>22.79</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -3745,36 +3628,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004005</t>
+          <t>003798</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合A</t>
+          <t>华安新瑞利灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>22.79</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3783,34 +3666,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>004006</t>
+          <t>005570</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合C</t>
+          <t>中融智选红利股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>89.56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -3819,34 +3704,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>013205</t>
+          <t>015067</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恒生前海恒源天利债C</t>
+          <t>华夏永康添福混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>21.66</t>
+          <t>28.97</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3855,6 +3742,1160 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6150,7 +7191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7574,7 +8615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8390,7 +9431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8886,364 +9927,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010330</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6303</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>湘财长顺混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009169</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0586</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0359</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009170</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007013</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>湘财长顺混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011462</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>